--- a/Dataset/Folds/Fold_2/Excel/87.xlsx
+++ b/Dataset/Folds/Fold_2/Excel/87.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="94">
   <si>
     <t>Doi</t>
   </si>
@@ -318,6 +318,30 @@
   </si>
   <si>
     <t>[Gagan%Kalra%NULL%1,                           Andrew M.%Williams%NULL%1,                           Patrick W.%Commiskey%NULL%1,                           Eve M. R.%Bowers%NULL%1,                           Tadhg%Schempf%NULL%1,                           José-Alain%Sahel%NULL%1,                           Evan L.%Waxman%waxmane@upmc.edu%1,                           Roxana%Fu%fur3@upmc.edu%1]</t>
+  </si>
+  <si>
+    <t>[Anthony V%Das%NULL%1,                            Padmaja K%Rani%NULL%1,                            Pravin K%Vaddavalli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gagan%Kalra%NULL%1,                            Andrew M.%Williams%NULL%1,                            Patrick W.%Commiskey%NULL%1,                            Eve M. R.%Bowers%NULL%1,                            Tadhg%Schempf%NULL%1,                            José-Alain%Sahel%NULL%1,                            Evan L.%Waxman%waxmane@upmc.edu%1,                            Roxana%Fu%fur3@upmc.edu%1]</t>
+  </si>
+  <si>
+    <t>[Anthony V%Das%NULL%1,                             Padmaja K%Rani%NULL%1,                             Pravin K%Vaddavalli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gagan%Kalra%NULL%1,                             Andrew M.%Williams%NULL%1,                             Patrick W.%Commiskey%NULL%1,                             Eve M. R.%Bowers%NULL%1,                             Tadhg%Schempf%NULL%1,                             José-Alain%Sahel%NULL%1,                             Evan L.%Waxman%waxmane@upmc.edu%1,                             Roxana%Fu%fur3@upmc.edu%1]</t>
+  </si>
+  <si>
+    <t>[Anthony V%Das%NULL%0, Padmaja K%Rani%NULL%1, Pravin K%Vaddavalli%NULL%1]</t>
+  </si>
+  <si>
+    <t>Wolters Kluwer - Medknow</t>
+  </si>
+  <si>
+    <t>[Gagan%Kalra%NULL%0, Andrew M.%Williams%NULL%1, Patrick W.%Commiskey%NULL%1, Eve M. R.%Bowers%NULL%1, Tadhg%Schempf%NULL%1, José-Alain%Sahel%NULL%1, Evan L.%Waxman%waxmane@upmc.edu%1, Roxana%Fu%fur3@upmc.edu%1]</t>
+  </si>
+  <si>
+    <t>Springer Healthcare</t>
   </si>
 </sst>
 </file>
@@ -648,7 +672,7 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -660,10 +684,10 @@
         <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="J2" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3">
@@ -677,10 +701,10 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
@@ -692,10 +716,10 @@
         <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="J3" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
